--- a/outcome/appendix/Figure Data/Fig.1 data.xlsx
+++ b/outcome/appendix/Figure Data/Fig.1 data.xlsx
@@ -11142,7 +11142,7 @@
     </row>
     <row r="726">
       <c r="A726" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B726" s="1" t="n">
         <v>44958</v>
@@ -11156,7 +11156,7 @@
     </row>
     <row r="727">
       <c r="A727" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B727" s="1" t="n">
         <v>44958</v>
@@ -11170,7 +11170,7 @@
     </row>
     <row r="728">
       <c r="A728" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B728" s="1" t="n">
         <v>44958</v>
@@ -11184,7 +11184,7 @@
     </row>
     <row r="729">
       <c r="A729" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B729" s="1" t="n">
         <v>44958</v>
@@ -11198,7 +11198,7 @@
     </row>
     <row r="730">
       <c r="A730" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B730" s="1" t="n">
         <v>44986</v>
@@ -11212,7 +11212,7 @@
     </row>
     <row r="731">
       <c r="A731" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B731" s="1" t="n">
         <v>44986</v>
@@ -11226,7 +11226,7 @@
     </row>
     <row r="732">
       <c r="A732" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B732" s="1" t="n">
         <v>44986</v>
@@ -11240,7 +11240,7 @@
     </row>
     <row r="733">
       <c r="A733" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B733" s="1" t="n">
         <v>44986</v>
@@ -21922,7 +21922,7 @@
     </row>
     <row r="726">
       <c r="A726" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B726" s="1" t="n">
         <v>44958</v>
@@ -21936,7 +21936,7 @@
     </row>
     <row r="727">
       <c r="A727" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B727" s="1" t="n">
         <v>44958</v>
@@ -21950,7 +21950,7 @@
     </row>
     <row r="728">
       <c r="A728" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B728" s="1" t="n">
         <v>44958</v>
@@ -21964,7 +21964,7 @@
     </row>
     <row r="729">
       <c r="A729" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B729" s="1" t="n">
         <v>44958</v>
@@ -21978,7 +21978,7 @@
     </row>
     <row r="730">
       <c r="A730" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B730" s="1" t="n">
         <v>44986</v>
@@ -21992,7 +21992,7 @@
     </row>
     <row r="731">
       <c r="A731" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B731" s="1" t="n">
         <v>44986</v>
@@ -22006,7 +22006,7 @@
     </row>
     <row r="732">
       <c r="A732" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B732" s="1" t="n">
         <v>44986</v>
@@ -22020,7 +22020,7 @@
     </row>
     <row r="733">
       <c r="A733" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B733" s="1" t="n">
         <v>44986</v>

--- a/outcome/appendix/Figure Data/Fig.1 data.xlsx
+++ b/outcome/appendix/Figure Data/Fig.1 data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t xml:space="preserve">disease</t>
   </si>
@@ -199,16 +199,19 @@
     <t xml:space="preserve">date</t>
   </si>
   <si>
-    <t xml:space="preserve">Pre-epidemic Periods</t>
+    <t xml:space="preserve">Pre-epidemic period</t>
   </si>
   <si>
-    <t xml:space="preserve">PHSMs Periods</t>
+    <t xml:space="preserve">PHSMs period I</t>
   </si>
   <si>
-    <t xml:space="preserve">Epidemic Periods</t>
+    <t xml:space="preserve">PHSMs period II</t>
   </si>
   <si>
-    <t xml:space="preserve">Post-epidemic Period</t>
+    <t xml:space="preserve">Epidemic period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Post-epidemic period</t>
   </si>
   <si>
     <t xml:space="preserve">percent</t>
@@ -9070,7 +9073,7 @@
     </row>
     <row r="578">
       <c r="A578" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B578" s="1" t="n">
         <v>43831</v>
@@ -9084,7 +9087,7 @@
     </row>
     <row r="579">
       <c r="A579" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B579" s="1" t="n">
         <v>43831</v>
@@ -9098,7 +9101,7 @@
     </row>
     <row r="580">
       <c r="A580" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B580" s="1" t="n">
         <v>43831</v>
@@ -9112,7 +9115,7 @@
     </row>
     <row r="581">
       <c r="A581" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B581" s="1" t="n">
         <v>43831</v>
@@ -9126,7 +9129,7 @@
     </row>
     <row r="582">
       <c r="A582" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B582" s="1" t="n">
         <v>43862</v>
@@ -9140,7 +9143,7 @@
     </row>
     <row r="583">
       <c r="A583" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B583" s="1" t="n">
         <v>43862</v>
@@ -9154,7 +9157,7 @@
     </row>
     <row r="584">
       <c r="A584" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B584" s="1" t="n">
         <v>43862</v>
@@ -9168,7 +9171,7 @@
     </row>
     <row r="585">
       <c r="A585" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B585" s="1" t="n">
         <v>43862</v>
@@ -9182,7 +9185,7 @@
     </row>
     <row r="586">
       <c r="A586" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B586" s="1" t="n">
         <v>43891</v>
@@ -9196,7 +9199,7 @@
     </row>
     <row r="587">
       <c r="A587" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B587" s="1" t="n">
         <v>43891</v>
@@ -9210,7 +9213,7 @@
     </row>
     <row r="588">
       <c r="A588" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B588" s="1" t="n">
         <v>43891</v>
@@ -9224,7 +9227,7 @@
     </row>
     <row r="589">
       <c r="A589" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B589" s="1" t="n">
         <v>43891</v>
@@ -9238,7 +9241,7 @@
     </row>
     <row r="590">
       <c r="A590" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B590" s="1" t="n">
         <v>43922</v>
@@ -9252,7 +9255,7 @@
     </row>
     <row r="591">
       <c r="A591" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B591" s="1" t="n">
         <v>43922</v>
@@ -9266,7 +9269,7 @@
     </row>
     <row r="592">
       <c r="A592" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B592" s="1" t="n">
         <v>43922</v>
@@ -9280,7 +9283,7 @@
     </row>
     <row r="593">
       <c r="A593" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B593" s="1" t="n">
         <v>43922</v>
@@ -9294,7 +9297,7 @@
     </row>
     <row r="594">
       <c r="A594" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B594" s="1" t="n">
         <v>43952</v>
@@ -9308,7 +9311,7 @@
     </row>
     <row r="595">
       <c r="A595" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B595" s="1" t="n">
         <v>43952</v>
@@ -9322,7 +9325,7 @@
     </row>
     <row r="596">
       <c r="A596" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B596" s="1" t="n">
         <v>43952</v>
@@ -9336,7 +9339,7 @@
     </row>
     <row r="597">
       <c r="A597" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B597" s="1" t="n">
         <v>43952</v>
@@ -9350,7 +9353,7 @@
     </row>
     <row r="598">
       <c r="A598" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B598" s="1" t="n">
         <v>43983</v>
@@ -9364,7 +9367,7 @@
     </row>
     <row r="599">
       <c r="A599" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B599" s="1" t="n">
         <v>43983</v>
@@ -9378,7 +9381,7 @@
     </row>
     <row r="600">
       <c r="A600" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B600" s="1" t="n">
         <v>43983</v>
@@ -9392,7 +9395,7 @@
     </row>
     <row r="601">
       <c r="A601" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B601" s="1" t="n">
         <v>43983</v>
@@ -9406,7 +9409,7 @@
     </row>
     <row r="602">
       <c r="A602" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B602" s="1" t="n">
         <v>44013</v>
@@ -9420,7 +9423,7 @@
     </row>
     <row r="603">
       <c r="A603" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B603" s="1" t="n">
         <v>44013</v>
@@ -9434,7 +9437,7 @@
     </row>
     <row r="604">
       <c r="A604" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B604" s="1" t="n">
         <v>44013</v>
@@ -9448,7 +9451,7 @@
     </row>
     <row r="605">
       <c r="A605" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B605" s="1" t="n">
         <v>44013</v>
@@ -9462,7 +9465,7 @@
     </row>
     <row r="606">
       <c r="A606" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B606" s="1" t="n">
         <v>44044</v>
@@ -9476,7 +9479,7 @@
     </row>
     <row r="607">
       <c r="A607" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B607" s="1" t="n">
         <v>44044</v>
@@ -9490,7 +9493,7 @@
     </row>
     <row r="608">
       <c r="A608" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B608" s="1" t="n">
         <v>44044</v>
@@ -9504,7 +9507,7 @@
     </row>
     <row r="609">
       <c r="A609" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B609" s="1" t="n">
         <v>44044</v>
@@ -9518,7 +9521,7 @@
     </row>
     <row r="610">
       <c r="A610" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B610" s="1" t="n">
         <v>44075</v>
@@ -9532,7 +9535,7 @@
     </row>
     <row r="611">
       <c r="A611" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B611" s="1" t="n">
         <v>44075</v>
@@ -9546,7 +9549,7 @@
     </row>
     <row r="612">
       <c r="A612" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B612" s="1" t="n">
         <v>44075</v>
@@ -9560,7 +9563,7 @@
     </row>
     <row r="613">
       <c r="A613" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B613" s="1" t="n">
         <v>44075</v>
@@ -9574,7 +9577,7 @@
     </row>
     <row r="614">
       <c r="A614" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B614" s="1" t="n">
         <v>44105</v>
@@ -9588,7 +9591,7 @@
     </row>
     <row r="615">
       <c r="A615" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B615" s="1" t="n">
         <v>44105</v>
@@ -9602,7 +9605,7 @@
     </row>
     <row r="616">
       <c r="A616" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B616" s="1" t="n">
         <v>44105</v>
@@ -9616,7 +9619,7 @@
     </row>
     <row r="617">
       <c r="A617" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B617" s="1" t="n">
         <v>44105</v>
@@ -9630,7 +9633,7 @@
     </row>
     <row r="618">
       <c r="A618" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B618" s="1" t="n">
         <v>44136</v>
@@ -9644,7 +9647,7 @@
     </row>
     <row r="619">
       <c r="A619" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B619" s="1" t="n">
         <v>44136</v>
@@ -9658,7 +9661,7 @@
     </row>
     <row r="620">
       <c r="A620" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B620" s="1" t="n">
         <v>44136</v>
@@ -9672,7 +9675,7 @@
     </row>
     <row r="621">
       <c r="A621" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B621" s="1" t="n">
         <v>44136</v>
@@ -9686,7 +9689,7 @@
     </row>
     <row r="622">
       <c r="A622" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B622" s="1" t="n">
         <v>44166</v>
@@ -9700,7 +9703,7 @@
     </row>
     <row r="623">
       <c r="A623" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B623" s="1" t="n">
         <v>44166</v>
@@ -9714,7 +9717,7 @@
     </row>
     <row r="624">
       <c r="A624" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B624" s="1" t="n">
         <v>44166</v>
@@ -9728,7 +9731,7 @@
     </row>
     <row r="625">
       <c r="A625" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B625" s="1" t="n">
         <v>44166</v>
@@ -9742,7 +9745,7 @@
     </row>
     <row r="626">
       <c r="A626" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B626" s="1" t="n">
         <v>44197</v>
@@ -9756,7 +9759,7 @@
     </row>
     <row r="627">
       <c r="A627" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B627" s="1" t="n">
         <v>44197</v>
@@ -9770,7 +9773,7 @@
     </row>
     <row r="628">
       <c r="A628" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B628" s="1" t="n">
         <v>44197</v>
@@ -9784,7 +9787,7 @@
     </row>
     <row r="629">
       <c r="A629" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B629" s="1" t="n">
         <v>44197</v>
@@ -9798,7 +9801,7 @@
     </row>
     <row r="630">
       <c r="A630" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B630" s="1" t="n">
         <v>44228</v>
@@ -9812,7 +9815,7 @@
     </row>
     <row r="631">
       <c r="A631" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B631" s="1" t="n">
         <v>44228</v>
@@ -9826,7 +9829,7 @@
     </row>
     <row r="632">
       <c r="A632" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B632" s="1" t="n">
         <v>44228</v>
@@ -9840,7 +9843,7 @@
     </row>
     <row r="633">
       <c r="A633" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B633" s="1" t="n">
         <v>44228</v>
@@ -9854,7 +9857,7 @@
     </row>
     <row r="634">
       <c r="A634" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B634" s="1" t="n">
         <v>44256</v>
@@ -9868,7 +9871,7 @@
     </row>
     <row r="635">
       <c r="A635" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B635" s="1" t="n">
         <v>44256</v>
@@ -9882,7 +9885,7 @@
     </row>
     <row r="636">
       <c r="A636" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B636" s="1" t="n">
         <v>44256</v>
@@ -9896,7 +9899,7 @@
     </row>
     <row r="637">
       <c r="A637" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B637" s="1" t="n">
         <v>44256</v>
@@ -9910,7 +9913,7 @@
     </row>
     <row r="638">
       <c r="A638" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B638" s="1" t="n">
         <v>44287</v>
@@ -9924,7 +9927,7 @@
     </row>
     <row r="639">
       <c r="A639" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B639" s="1" t="n">
         <v>44287</v>
@@ -9938,7 +9941,7 @@
     </row>
     <row r="640">
       <c r="A640" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B640" s="1" t="n">
         <v>44287</v>
@@ -9952,7 +9955,7 @@
     </row>
     <row r="641">
       <c r="A641" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B641" s="1" t="n">
         <v>44287</v>
@@ -9966,7 +9969,7 @@
     </row>
     <row r="642">
       <c r="A642" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B642" s="1" t="n">
         <v>44317</v>
@@ -9980,7 +9983,7 @@
     </row>
     <row r="643">
       <c r="A643" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B643" s="1" t="n">
         <v>44317</v>
@@ -9994,7 +9997,7 @@
     </row>
     <row r="644">
       <c r="A644" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B644" s="1" t="n">
         <v>44317</v>
@@ -10008,7 +10011,7 @@
     </row>
     <row r="645">
       <c r="A645" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B645" s="1" t="n">
         <v>44317</v>
@@ -10022,7 +10025,7 @@
     </row>
     <row r="646">
       <c r="A646" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B646" s="1" t="n">
         <v>44348</v>
@@ -10036,7 +10039,7 @@
     </row>
     <row r="647">
       <c r="A647" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B647" s="1" t="n">
         <v>44348</v>
@@ -10050,7 +10053,7 @@
     </row>
     <row r="648">
       <c r="A648" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B648" s="1" t="n">
         <v>44348</v>
@@ -10064,7 +10067,7 @@
     </row>
     <row r="649">
       <c r="A649" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B649" s="1" t="n">
         <v>44348</v>
@@ -10078,7 +10081,7 @@
     </row>
     <row r="650">
       <c r="A650" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B650" s="1" t="n">
         <v>44378</v>
@@ -10092,7 +10095,7 @@
     </row>
     <row r="651">
       <c r="A651" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B651" s="1" t="n">
         <v>44378</v>
@@ -10106,7 +10109,7 @@
     </row>
     <row r="652">
       <c r="A652" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B652" s="1" t="n">
         <v>44378</v>
@@ -10120,7 +10123,7 @@
     </row>
     <row r="653">
       <c r="A653" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B653" s="1" t="n">
         <v>44378</v>
@@ -10134,7 +10137,7 @@
     </row>
     <row r="654">
       <c r="A654" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B654" s="1" t="n">
         <v>44409</v>
@@ -10148,7 +10151,7 @@
     </row>
     <row r="655">
       <c r="A655" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B655" s="1" t="n">
         <v>44409</v>
@@ -10162,7 +10165,7 @@
     </row>
     <row r="656">
       <c r="A656" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B656" s="1" t="n">
         <v>44409</v>
@@ -10176,7 +10179,7 @@
     </row>
     <row r="657">
       <c r="A657" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B657" s="1" t="n">
         <v>44409</v>
@@ -10190,7 +10193,7 @@
     </row>
     <row r="658">
       <c r="A658" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B658" s="1" t="n">
         <v>44440</v>
@@ -10204,7 +10207,7 @@
     </row>
     <row r="659">
       <c r="A659" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B659" s="1" t="n">
         <v>44440</v>
@@ -10218,7 +10221,7 @@
     </row>
     <row r="660">
       <c r="A660" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B660" s="1" t="n">
         <v>44440</v>
@@ -10232,7 +10235,7 @@
     </row>
     <row r="661">
       <c r="A661" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B661" s="1" t="n">
         <v>44440</v>
@@ -10246,7 +10249,7 @@
     </row>
     <row r="662">
       <c r="A662" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B662" s="1" t="n">
         <v>44470</v>
@@ -10260,7 +10263,7 @@
     </row>
     <row r="663">
       <c r="A663" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B663" s="1" t="n">
         <v>44470</v>
@@ -10274,7 +10277,7 @@
     </row>
     <row r="664">
       <c r="A664" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B664" s="1" t="n">
         <v>44470</v>
@@ -10288,7 +10291,7 @@
     </row>
     <row r="665">
       <c r="A665" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B665" s="1" t="n">
         <v>44470</v>
@@ -10302,7 +10305,7 @@
     </row>
     <row r="666">
       <c r="A666" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B666" s="1" t="n">
         <v>44501</v>
@@ -10316,7 +10319,7 @@
     </row>
     <row r="667">
       <c r="A667" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B667" s="1" t="n">
         <v>44501</v>
@@ -10330,7 +10333,7 @@
     </row>
     <row r="668">
       <c r="A668" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B668" s="1" t="n">
         <v>44501</v>
@@ -10344,7 +10347,7 @@
     </row>
     <row r="669">
       <c r="A669" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B669" s="1" t="n">
         <v>44501</v>
@@ -10358,7 +10361,7 @@
     </row>
     <row r="670">
       <c r="A670" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B670" s="1" t="n">
         <v>44531</v>
@@ -10372,7 +10375,7 @@
     </row>
     <row r="671">
       <c r="A671" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B671" s="1" t="n">
         <v>44531</v>
@@ -10386,7 +10389,7 @@
     </row>
     <row r="672">
       <c r="A672" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B672" s="1" t="n">
         <v>44531</v>
@@ -10400,7 +10403,7 @@
     </row>
     <row r="673">
       <c r="A673" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B673" s="1" t="n">
         <v>44531</v>
@@ -10414,7 +10417,7 @@
     </row>
     <row r="674">
       <c r="A674" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B674" s="1" t="n">
         <v>44562</v>
@@ -10428,7 +10431,7 @@
     </row>
     <row r="675">
       <c r="A675" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B675" s="1" t="n">
         <v>44562</v>
@@ -10442,7 +10445,7 @@
     </row>
     <row r="676">
       <c r="A676" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B676" s="1" t="n">
         <v>44562</v>
@@ -10456,7 +10459,7 @@
     </row>
     <row r="677">
       <c r="A677" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B677" s="1" t="n">
         <v>44562</v>
@@ -10470,7 +10473,7 @@
     </row>
     <row r="678">
       <c r="A678" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B678" s="1" t="n">
         <v>44593</v>
@@ -10484,7 +10487,7 @@
     </row>
     <row r="679">
       <c r="A679" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B679" s="1" t="n">
         <v>44593</v>
@@ -10498,7 +10501,7 @@
     </row>
     <row r="680">
       <c r="A680" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B680" s="1" t="n">
         <v>44593</v>
@@ -10512,7 +10515,7 @@
     </row>
     <row r="681">
       <c r="A681" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B681" s="1" t="n">
         <v>44593</v>
@@ -10526,7 +10529,7 @@
     </row>
     <row r="682">
       <c r="A682" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B682" s="1" t="n">
         <v>44621</v>
@@ -10540,7 +10543,7 @@
     </row>
     <row r="683">
       <c r="A683" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B683" s="1" t="n">
         <v>44621</v>
@@ -10554,7 +10557,7 @@
     </row>
     <row r="684">
       <c r="A684" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B684" s="1" t="n">
         <v>44621</v>
@@ -10568,7 +10571,7 @@
     </row>
     <row r="685">
       <c r="A685" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B685" s="1" t="n">
         <v>44621</v>
@@ -10582,7 +10585,7 @@
     </row>
     <row r="686">
       <c r="A686" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B686" s="1" t="n">
         <v>44652</v>
@@ -10596,7 +10599,7 @@
     </row>
     <row r="687">
       <c r="A687" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B687" s="1" t="n">
         <v>44652</v>
@@ -10610,7 +10613,7 @@
     </row>
     <row r="688">
       <c r="A688" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B688" s="1" t="n">
         <v>44652</v>
@@ -10624,7 +10627,7 @@
     </row>
     <row r="689">
       <c r="A689" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B689" s="1" t="n">
         <v>44652</v>
@@ -10638,7 +10641,7 @@
     </row>
     <row r="690">
       <c r="A690" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B690" s="1" t="n">
         <v>44682</v>
@@ -10652,7 +10655,7 @@
     </row>
     <row r="691">
       <c r="A691" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B691" s="1" t="n">
         <v>44682</v>
@@ -10666,7 +10669,7 @@
     </row>
     <row r="692">
       <c r="A692" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B692" s="1" t="n">
         <v>44682</v>
@@ -10680,7 +10683,7 @@
     </row>
     <row r="693">
       <c r="A693" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B693" s="1" t="n">
         <v>44682</v>
@@ -10694,7 +10697,7 @@
     </row>
     <row r="694">
       <c r="A694" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B694" s="1" t="n">
         <v>44713</v>
@@ -10708,7 +10711,7 @@
     </row>
     <row r="695">
       <c r="A695" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B695" s="1" t="n">
         <v>44713</v>
@@ -10722,7 +10725,7 @@
     </row>
     <row r="696">
       <c r="A696" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B696" s="1" t="n">
         <v>44713</v>
@@ -10736,7 +10739,7 @@
     </row>
     <row r="697">
       <c r="A697" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B697" s="1" t="n">
         <v>44713</v>
@@ -10750,7 +10753,7 @@
     </row>
     <row r="698">
       <c r="A698" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B698" s="1" t="n">
         <v>44743</v>
@@ -10764,7 +10767,7 @@
     </row>
     <row r="699">
       <c r="A699" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B699" s="1" t="n">
         <v>44743</v>
@@ -10778,7 +10781,7 @@
     </row>
     <row r="700">
       <c r="A700" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B700" s="1" t="n">
         <v>44743</v>
@@ -10792,7 +10795,7 @@
     </row>
     <row r="701">
       <c r="A701" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B701" s="1" t="n">
         <v>44743</v>
@@ -10806,7 +10809,7 @@
     </row>
     <row r="702">
       <c r="A702" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B702" s="1" t="n">
         <v>44774</v>
@@ -10820,7 +10823,7 @@
     </row>
     <row r="703">
       <c r="A703" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B703" s="1" t="n">
         <v>44774</v>
@@ -10834,7 +10837,7 @@
     </row>
     <row r="704">
       <c r="A704" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B704" s="1" t="n">
         <v>44774</v>
@@ -10848,7 +10851,7 @@
     </row>
     <row r="705">
       <c r="A705" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B705" s="1" t="n">
         <v>44774</v>
@@ -10862,7 +10865,7 @@
     </row>
     <row r="706">
       <c r="A706" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B706" s="1" t="n">
         <v>44805</v>
@@ -10876,7 +10879,7 @@
     </row>
     <row r="707">
       <c r="A707" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B707" s="1" t="n">
         <v>44805</v>
@@ -10890,7 +10893,7 @@
     </row>
     <row r="708">
       <c r="A708" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B708" s="1" t="n">
         <v>44805</v>
@@ -10904,7 +10907,7 @@
     </row>
     <row r="709">
       <c r="A709" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B709" s="1" t="n">
         <v>44805</v>
@@ -10918,7 +10921,7 @@
     </row>
     <row r="710">
       <c r="A710" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B710" s="1" t="n">
         <v>44835</v>
@@ -10932,7 +10935,7 @@
     </row>
     <row r="711">
       <c r="A711" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B711" s="1" t="n">
         <v>44835</v>
@@ -10946,7 +10949,7 @@
     </row>
     <row r="712">
       <c r="A712" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B712" s="1" t="n">
         <v>44835</v>
@@ -10960,7 +10963,7 @@
     </row>
     <row r="713">
       <c r="A713" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B713" s="1" t="n">
         <v>44835</v>
@@ -10974,7 +10977,7 @@
     </row>
     <row r="714">
       <c r="A714" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B714" s="1" t="n">
         <v>44866</v>
@@ -10988,7 +10991,7 @@
     </row>
     <row r="715">
       <c r="A715" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B715" s="1" t="n">
         <v>44866</v>
@@ -11002,7 +11005,7 @@
     </row>
     <row r="716">
       <c r="A716" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B716" s="1" t="n">
         <v>44866</v>
@@ -11016,7 +11019,7 @@
     </row>
     <row r="717">
       <c r="A717" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B717" s="1" t="n">
         <v>44866</v>
@@ -11030,7 +11033,7 @@
     </row>
     <row r="718">
       <c r="A718" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B718" s="1" t="n">
         <v>44896</v>
@@ -11044,7 +11047,7 @@
     </row>
     <row r="719">
       <c r="A719" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B719" s="1" t="n">
         <v>44896</v>
@@ -11058,7 +11061,7 @@
     </row>
     <row r="720">
       <c r="A720" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B720" s="1" t="n">
         <v>44896</v>
@@ -11072,7 +11075,7 @@
     </row>
     <row r="721">
       <c r="A721" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B721" s="1" t="n">
         <v>44896</v>
@@ -11086,7 +11089,7 @@
     </row>
     <row r="722">
       <c r="A722" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B722" s="1" t="n">
         <v>44927</v>
@@ -11100,7 +11103,7 @@
     </row>
     <row r="723">
       <c r="A723" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B723" s="1" t="n">
         <v>44927</v>
@@ -11114,7 +11117,7 @@
     </row>
     <row r="724">
       <c r="A724" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B724" s="1" t="n">
         <v>44927</v>
@@ -11128,7 +11131,7 @@
     </row>
     <row r="725">
       <c r="A725" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B725" s="1" t="n">
         <v>44927</v>
@@ -11142,7 +11145,7 @@
     </row>
     <row r="726">
       <c r="A726" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B726" s="1" t="n">
         <v>44958</v>
@@ -11156,7 +11159,7 @@
     </row>
     <row r="727">
       <c r="A727" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B727" s="1" t="n">
         <v>44958</v>
@@ -11170,7 +11173,7 @@
     </row>
     <row r="728">
       <c r="A728" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B728" s="1" t="n">
         <v>44958</v>
@@ -11184,7 +11187,7 @@
     </row>
     <row r="729">
       <c r="A729" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B729" s="1" t="n">
         <v>44958</v>
@@ -11198,7 +11201,7 @@
     </row>
     <row r="730">
       <c r="A730" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B730" s="1" t="n">
         <v>44986</v>
@@ -11212,7 +11215,7 @@
     </row>
     <row r="731">
       <c r="A731" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B731" s="1" t="n">
         <v>44986</v>
@@ -11226,7 +11229,7 @@
     </row>
     <row r="732">
       <c r="A732" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B732" s="1" t="n">
         <v>44986</v>
@@ -11240,7 +11243,7 @@
     </row>
     <row r="733">
       <c r="A733" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B733" s="1" t="n">
         <v>44986</v>
@@ -11254,7 +11257,7 @@
     </row>
     <row r="734">
       <c r="A734" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B734" s="1" t="n">
         <v>45017</v>
@@ -11268,7 +11271,7 @@
     </row>
     <row r="735">
       <c r="A735" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B735" s="1" t="n">
         <v>45017</v>
@@ -11282,7 +11285,7 @@
     </row>
     <row r="736">
       <c r="A736" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B736" s="1" t="n">
         <v>45017</v>
@@ -11296,7 +11299,7 @@
     </row>
     <row r="737">
       <c r="A737" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B737" s="1" t="n">
         <v>45017</v>
@@ -11310,7 +11313,7 @@
     </row>
     <row r="738">
       <c r="A738" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B738" s="1" t="n">
         <v>45047</v>
@@ -11324,7 +11327,7 @@
     </row>
     <row r="739">
       <c r="A739" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B739" s="1" t="n">
         <v>45047</v>
@@ -11338,7 +11341,7 @@
     </row>
     <row r="740">
       <c r="A740" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B740" s="1" t="n">
         <v>45047</v>
@@ -11352,7 +11355,7 @@
     </row>
     <row r="741">
       <c r="A741" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B741" s="1" t="n">
         <v>45047</v>
@@ -11366,7 +11369,7 @@
     </row>
     <row r="742">
       <c r="A742" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B742" s="1" t="n">
         <v>45078</v>
@@ -11380,7 +11383,7 @@
     </row>
     <row r="743">
       <c r="A743" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B743" s="1" t="n">
         <v>45078</v>
@@ -11394,7 +11397,7 @@
     </row>
     <row r="744">
       <c r="A744" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B744" s="1" t="n">
         <v>45078</v>
@@ -11408,7 +11411,7 @@
     </row>
     <row r="745">
       <c r="A745" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B745" s="1" t="n">
         <v>45078</v>
@@ -11422,7 +11425,7 @@
     </row>
     <row r="746">
       <c r="A746" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B746" s="1" t="n">
         <v>45108</v>
@@ -11436,7 +11439,7 @@
     </row>
     <row r="747">
       <c r="A747" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B747" s="1" t="n">
         <v>45108</v>
@@ -11450,7 +11453,7 @@
     </row>
     <row r="748">
       <c r="A748" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B748" s="1" t="n">
         <v>45108</v>
@@ -11464,7 +11467,7 @@
     </row>
     <row r="749">
       <c r="A749" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B749" s="1" t="n">
         <v>45108</v>
@@ -11478,7 +11481,7 @@
     </row>
     <row r="750">
       <c r="A750" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B750" s="1" t="n">
         <v>45139</v>
@@ -11492,7 +11495,7 @@
     </row>
     <row r="751">
       <c r="A751" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B751" s="1" t="n">
         <v>45139</v>
@@ -11506,7 +11509,7 @@
     </row>
     <row r="752">
       <c r="A752" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B752" s="1" t="n">
         <v>45139</v>
@@ -11520,7 +11523,7 @@
     </row>
     <row r="753">
       <c r="A753" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B753" s="1" t="n">
         <v>45139</v>
@@ -11534,7 +11537,7 @@
     </row>
     <row r="754">
       <c r="A754" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B754" s="1" t="n">
         <v>45170</v>
@@ -11548,7 +11551,7 @@
     </row>
     <row r="755">
       <c r="A755" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B755" s="1" t="n">
         <v>45170</v>
@@ -11562,7 +11565,7 @@
     </row>
     <row r="756">
       <c r="A756" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B756" s="1" t="n">
         <v>45170</v>
@@ -11576,7 +11579,7 @@
     </row>
     <row r="757">
       <c r="A757" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B757" s="1" t="n">
         <v>45170</v>
@@ -11590,7 +11593,7 @@
     </row>
     <row r="758">
       <c r="A758" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B758" s="1" t="n">
         <v>45200</v>
@@ -11604,7 +11607,7 @@
     </row>
     <row r="759">
       <c r="A759" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B759" s="1" t="n">
         <v>45200</v>
@@ -11618,7 +11621,7 @@
     </row>
     <row r="760">
       <c r="A760" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B760" s="1" t="n">
         <v>45200</v>
@@ -11632,7 +11635,7 @@
     </row>
     <row r="761">
       <c r="A761" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B761" s="1" t="n">
         <v>45200</v>
@@ -11646,7 +11649,7 @@
     </row>
     <row r="762">
       <c r="A762" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B762" s="1" t="n">
         <v>45231</v>
@@ -11660,7 +11663,7 @@
     </row>
     <row r="763">
       <c r="A763" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B763" s="1" t="n">
         <v>45231</v>
@@ -11674,7 +11677,7 @@
     </row>
     <row r="764">
       <c r="A764" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B764" s="1" t="n">
         <v>45231</v>
@@ -11688,7 +11691,7 @@
     </row>
     <row r="765">
       <c r="A765" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B765" s="1" t="n">
         <v>45231</v>
@@ -11702,7 +11705,7 @@
     </row>
     <row r="766">
       <c r="A766" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B766" s="1" t="n">
         <v>45261</v>
@@ -11716,7 +11719,7 @@
     </row>
     <row r="767">
       <c r="A767" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B767" s="1" t="n">
         <v>45261</v>
@@ -11730,7 +11733,7 @@
     </row>
     <row r="768">
       <c r="A768" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B768" s="1" t="n">
         <v>45261</v>
@@ -11744,7 +11747,7 @@
     </row>
     <row r="769">
       <c r="A769" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B769" s="1" t="n">
         <v>45261</v>
@@ -11781,7 +11784,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2">
@@ -19850,7 +19853,7 @@
     </row>
     <row r="578">
       <c r="A578" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B578" s="1" t="n">
         <v>43831</v>
@@ -19864,7 +19867,7 @@
     </row>
     <row r="579">
       <c r="A579" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B579" s="1" t="n">
         <v>43831</v>
@@ -19878,7 +19881,7 @@
     </row>
     <row r="580">
       <c r="A580" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B580" s="1" t="n">
         <v>43831</v>
@@ -19892,7 +19895,7 @@
     </row>
     <row r="581">
       <c r="A581" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B581" s="1" t="n">
         <v>43831</v>
@@ -19906,7 +19909,7 @@
     </row>
     <row r="582">
       <c r="A582" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B582" s="1" t="n">
         <v>43862</v>
@@ -19920,7 +19923,7 @@
     </row>
     <row r="583">
       <c r="A583" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B583" s="1" t="n">
         <v>43862</v>
@@ -19934,7 +19937,7 @@
     </row>
     <row r="584">
       <c r="A584" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B584" s="1" t="n">
         <v>43862</v>
@@ -19948,7 +19951,7 @@
     </row>
     <row r="585">
       <c r="A585" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B585" s="1" t="n">
         <v>43862</v>
@@ -19962,7 +19965,7 @@
     </row>
     <row r="586">
       <c r="A586" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B586" s="1" t="n">
         <v>43891</v>
@@ -19976,7 +19979,7 @@
     </row>
     <row r="587">
       <c r="A587" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B587" s="1" t="n">
         <v>43891</v>
@@ -19990,7 +19993,7 @@
     </row>
     <row r="588">
       <c r="A588" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B588" s="1" t="n">
         <v>43891</v>
@@ -20004,7 +20007,7 @@
     </row>
     <row r="589">
       <c r="A589" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B589" s="1" t="n">
         <v>43891</v>
@@ -20018,7 +20021,7 @@
     </row>
     <row r="590">
       <c r="A590" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B590" s="1" t="n">
         <v>43922</v>
@@ -20032,7 +20035,7 @@
     </row>
     <row r="591">
       <c r="A591" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B591" s="1" t="n">
         <v>43922</v>
@@ -20046,7 +20049,7 @@
     </row>
     <row r="592">
       <c r="A592" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B592" s="1" t="n">
         <v>43922</v>
@@ -20060,7 +20063,7 @@
     </row>
     <row r="593">
       <c r="A593" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B593" s="1" t="n">
         <v>43922</v>
@@ -20074,7 +20077,7 @@
     </row>
     <row r="594">
       <c r="A594" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B594" s="1" t="n">
         <v>43952</v>
@@ -20088,7 +20091,7 @@
     </row>
     <row r="595">
       <c r="A595" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B595" s="1" t="n">
         <v>43952</v>
@@ -20102,7 +20105,7 @@
     </row>
     <row r="596">
       <c r="A596" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B596" s="1" t="n">
         <v>43952</v>
@@ -20116,7 +20119,7 @@
     </row>
     <row r="597">
       <c r="A597" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B597" s="1" t="n">
         <v>43952</v>
@@ -20130,7 +20133,7 @@
     </row>
     <row r="598">
       <c r="A598" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B598" s="1" t="n">
         <v>43983</v>
@@ -20144,7 +20147,7 @@
     </row>
     <row r="599">
       <c r="A599" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B599" s="1" t="n">
         <v>43983</v>
@@ -20158,7 +20161,7 @@
     </row>
     <row r="600">
       <c r="A600" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B600" s="1" t="n">
         <v>43983</v>
@@ -20172,7 +20175,7 @@
     </row>
     <row r="601">
       <c r="A601" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B601" s="1" t="n">
         <v>43983</v>
@@ -20186,7 +20189,7 @@
     </row>
     <row r="602">
       <c r="A602" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B602" s="1" t="n">
         <v>44013</v>
@@ -20200,7 +20203,7 @@
     </row>
     <row r="603">
       <c r="A603" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B603" s="1" t="n">
         <v>44013</v>
@@ -20214,7 +20217,7 @@
     </row>
     <row r="604">
       <c r="A604" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B604" s="1" t="n">
         <v>44013</v>
@@ -20228,7 +20231,7 @@
     </row>
     <row r="605">
       <c r="A605" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B605" s="1" t="n">
         <v>44013</v>
@@ -20242,7 +20245,7 @@
     </row>
     <row r="606">
       <c r="A606" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B606" s="1" t="n">
         <v>44044</v>
@@ -20256,7 +20259,7 @@
     </row>
     <row r="607">
       <c r="A607" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B607" s="1" t="n">
         <v>44044</v>
@@ -20270,7 +20273,7 @@
     </row>
     <row r="608">
       <c r="A608" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B608" s="1" t="n">
         <v>44044</v>
@@ -20284,7 +20287,7 @@
     </row>
     <row r="609">
       <c r="A609" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B609" s="1" t="n">
         <v>44044</v>
@@ -20298,7 +20301,7 @@
     </row>
     <row r="610">
       <c r="A610" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B610" s="1" t="n">
         <v>44075</v>
@@ -20312,7 +20315,7 @@
     </row>
     <row r="611">
       <c r="A611" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B611" s="1" t="n">
         <v>44075</v>
@@ -20326,7 +20329,7 @@
     </row>
     <row r="612">
       <c r="A612" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B612" s="1" t="n">
         <v>44075</v>
@@ -20340,7 +20343,7 @@
     </row>
     <row r="613">
       <c r="A613" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B613" s="1" t="n">
         <v>44075</v>
@@ -20354,7 +20357,7 @@
     </row>
     <row r="614">
       <c r="A614" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B614" s="1" t="n">
         <v>44105</v>
@@ -20368,7 +20371,7 @@
     </row>
     <row r="615">
       <c r="A615" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B615" s="1" t="n">
         <v>44105</v>
@@ -20382,7 +20385,7 @@
     </row>
     <row r="616">
       <c r="A616" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B616" s="1" t="n">
         <v>44105</v>
@@ -20396,7 +20399,7 @@
     </row>
     <row r="617">
       <c r="A617" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B617" s="1" t="n">
         <v>44105</v>
@@ -20410,7 +20413,7 @@
     </row>
     <row r="618">
       <c r="A618" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B618" s="1" t="n">
         <v>44136</v>
@@ -20424,7 +20427,7 @@
     </row>
     <row r="619">
       <c r="A619" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B619" s="1" t="n">
         <v>44136</v>
@@ -20438,7 +20441,7 @@
     </row>
     <row r="620">
       <c r="A620" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B620" s="1" t="n">
         <v>44136</v>
@@ -20452,7 +20455,7 @@
     </row>
     <row r="621">
       <c r="A621" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B621" s="1" t="n">
         <v>44136</v>
@@ -20466,7 +20469,7 @@
     </row>
     <row r="622">
       <c r="A622" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B622" s="1" t="n">
         <v>44166</v>
@@ -20480,7 +20483,7 @@
     </row>
     <row r="623">
       <c r="A623" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B623" s="1" t="n">
         <v>44166</v>
@@ -20494,7 +20497,7 @@
     </row>
     <row r="624">
       <c r="A624" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B624" s="1" t="n">
         <v>44166</v>
@@ -20508,7 +20511,7 @@
     </row>
     <row r="625">
       <c r="A625" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B625" s="1" t="n">
         <v>44166</v>
@@ -20522,7 +20525,7 @@
     </row>
     <row r="626">
       <c r="A626" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B626" s="1" t="n">
         <v>44197</v>
@@ -20536,7 +20539,7 @@
     </row>
     <row r="627">
       <c r="A627" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B627" s="1" t="n">
         <v>44197</v>
@@ -20550,7 +20553,7 @@
     </row>
     <row r="628">
       <c r="A628" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B628" s="1" t="n">
         <v>44197</v>
@@ -20564,7 +20567,7 @@
     </row>
     <row r="629">
       <c r="A629" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B629" s="1" t="n">
         <v>44197</v>
@@ -20578,7 +20581,7 @@
     </row>
     <row r="630">
       <c r="A630" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B630" s="1" t="n">
         <v>44228</v>
@@ -20592,7 +20595,7 @@
     </row>
     <row r="631">
       <c r="A631" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B631" s="1" t="n">
         <v>44228</v>
@@ -20606,7 +20609,7 @@
     </row>
     <row r="632">
       <c r="A632" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B632" s="1" t="n">
         <v>44228</v>
@@ -20620,7 +20623,7 @@
     </row>
     <row r="633">
       <c r="A633" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B633" s="1" t="n">
         <v>44228</v>
@@ -20634,7 +20637,7 @@
     </row>
     <row r="634">
       <c r="A634" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B634" s="1" t="n">
         <v>44256</v>
@@ -20648,7 +20651,7 @@
     </row>
     <row r="635">
       <c r="A635" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B635" s="1" t="n">
         <v>44256</v>
@@ -20662,7 +20665,7 @@
     </row>
     <row r="636">
       <c r="A636" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B636" s="1" t="n">
         <v>44256</v>
@@ -20676,7 +20679,7 @@
     </row>
     <row r="637">
       <c r="A637" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B637" s="1" t="n">
         <v>44256</v>
@@ -20690,7 +20693,7 @@
     </row>
     <row r="638">
       <c r="A638" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B638" s="1" t="n">
         <v>44287</v>
@@ -20704,7 +20707,7 @@
     </row>
     <row r="639">
       <c r="A639" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B639" s="1" t="n">
         <v>44287</v>
@@ -20718,7 +20721,7 @@
     </row>
     <row r="640">
       <c r="A640" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B640" s="1" t="n">
         <v>44287</v>
@@ -20732,7 +20735,7 @@
     </row>
     <row r="641">
       <c r="A641" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B641" s="1" t="n">
         <v>44287</v>
@@ -20746,7 +20749,7 @@
     </row>
     <row r="642">
       <c r="A642" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B642" s="1" t="n">
         <v>44317</v>
@@ -20760,7 +20763,7 @@
     </row>
     <row r="643">
       <c r="A643" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B643" s="1" t="n">
         <v>44317</v>
@@ -20774,7 +20777,7 @@
     </row>
     <row r="644">
       <c r="A644" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B644" s="1" t="n">
         <v>44317</v>
@@ -20788,7 +20791,7 @@
     </row>
     <row r="645">
       <c r="A645" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B645" s="1" t="n">
         <v>44317</v>
@@ -20802,7 +20805,7 @@
     </row>
     <row r="646">
       <c r="A646" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B646" s="1" t="n">
         <v>44348</v>
@@ -20816,7 +20819,7 @@
     </row>
     <row r="647">
       <c r="A647" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B647" s="1" t="n">
         <v>44348</v>
@@ -20830,7 +20833,7 @@
     </row>
     <row r="648">
       <c r="A648" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B648" s="1" t="n">
         <v>44348</v>
@@ -20844,7 +20847,7 @@
     </row>
     <row r="649">
       <c r="A649" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B649" s="1" t="n">
         <v>44348</v>
@@ -20858,7 +20861,7 @@
     </row>
     <row r="650">
       <c r="A650" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B650" s="1" t="n">
         <v>44378</v>
@@ -20872,7 +20875,7 @@
     </row>
     <row r="651">
       <c r="A651" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B651" s="1" t="n">
         <v>44378</v>
@@ -20886,7 +20889,7 @@
     </row>
     <row r="652">
       <c r="A652" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B652" s="1" t="n">
         <v>44378</v>
@@ -20900,7 +20903,7 @@
     </row>
     <row r="653">
       <c r="A653" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B653" s="1" t="n">
         <v>44378</v>
@@ -20914,7 +20917,7 @@
     </row>
     <row r="654">
       <c r="A654" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B654" s="1" t="n">
         <v>44409</v>
@@ -20928,7 +20931,7 @@
     </row>
     <row r="655">
       <c r="A655" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B655" s="1" t="n">
         <v>44409</v>
@@ -20942,7 +20945,7 @@
     </row>
     <row r="656">
       <c r="A656" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B656" s="1" t="n">
         <v>44409</v>
@@ -20956,7 +20959,7 @@
     </row>
     <row r="657">
       <c r="A657" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B657" s="1" t="n">
         <v>44409</v>
@@ -20970,7 +20973,7 @@
     </row>
     <row r="658">
       <c r="A658" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B658" s="1" t="n">
         <v>44440</v>
@@ -20984,7 +20987,7 @@
     </row>
     <row r="659">
       <c r="A659" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B659" s="1" t="n">
         <v>44440</v>
@@ -20998,7 +21001,7 @@
     </row>
     <row r="660">
       <c r="A660" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B660" s="1" t="n">
         <v>44440</v>
@@ -21012,7 +21015,7 @@
     </row>
     <row r="661">
       <c r="A661" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B661" s="1" t="n">
         <v>44440</v>
@@ -21026,7 +21029,7 @@
     </row>
     <row r="662">
       <c r="A662" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B662" s="1" t="n">
         <v>44470</v>
@@ -21040,7 +21043,7 @@
     </row>
     <row r="663">
       <c r="A663" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B663" s="1" t="n">
         <v>44470</v>
@@ -21054,7 +21057,7 @@
     </row>
     <row r="664">
       <c r="A664" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B664" s="1" t="n">
         <v>44470</v>
@@ -21068,7 +21071,7 @@
     </row>
     <row r="665">
       <c r="A665" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B665" s="1" t="n">
         <v>44470</v>
@@ -21082,7 +21085,7 @@
     </row>
     <row r="666">
       <c r="A666" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B666" s="1" t="n">
         <v>44501</v>
@@ -21096,7 +21099,7 @@
     </row>
     <row r="667">
       <c r="A667" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B667" s="1" t="n">
         <v>44501</v>
@@ -21110,7 +21113,7 @@
     </row>
     <row r="668">
       <c r="A668" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B668" s="1" t="n">
         <v>44501</v>
@@ -21124,7 +21127,7 @@
     </row>
     <row r="669">
       <c r="A669" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B669" s="1" t="n">
         <v>44501</v>
@@ -21138,7 +21141,7 @@
     </row>
     <row r="670">
       <c r="A670" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B670" s="1" t="n">
         <v>44531</v>
@@ -21152,7 +21155,7 @@
     </row>
     <row r="671">
       <c r="A671" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B671" s="1" t="n">
         <v>44531</v>
@@ -21166,7 +21169,7 @@
     </row>
     <row r="672">
       <c r="A672" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B672" s="1" t="n">
         <v>44531</v>
@@ -21180,7 +21183,7 @@
     </row>
     <row r="673">
       <c r="A673" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B673" s="1" t="n">
         <v>44531</v>
@@ -21194,7 +21197,7 @@
     </row>
     <row r="674">
       <c r="A674" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B674" s="1" t="n">
         <v>44562</v>
@@ -21208,7 +21211,7 @@
     </row>
     <row r="675">
       <c r="A675" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B675" s="1" t="n">
         <v>44562</v>
@@ -21222,7 +21225,7 @@
     </row>
     <row r="676">
       <c r="A676" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B676" s="1" t="n">
         <v>44562</v>
@@ -21236,7 +21239,7 @@
     </row>
     <row r="677">
       <c r="A677" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B677" s="1" t="n">
         <v>44562</v>
@@ -21250,7 +21253,7 @@
     </row>
     <row r="678">
       <c r="A678" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B678" s="1" t="n">
         <v>44593</v>
@@ -21264,7 +21267,7 @@
     </row>
     <row r="679">
       <c r="A679" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B679" s="1" t="n">
         <v>44593</v>
@@ -21278,7 +21281,7 @@
     </row>
     <row r="680">
       <c r="A680" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B680" s="1" t="n">
         <v>44593</v>
@@ -21292,7 +21295,7 @@
     </row>
     <row r="681">
       <c r="A681" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B681" s="1" t="n">
         <v>44593</v>
@@ -21306,7 +21309,7 @@
     </row>
     <row r="682">
       <c r="A682" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B682" s="1" t="n">
         <v>44621</v>
@@ -21320,7 +21323,7 @@
     </row>
     <row r="683">
       <c r="A683" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B683" s="1" t="n">
         <v>44621</v>
@@ -21334,7 +21337,7 @@
     </row>
     <row r="684">
       <c r="A684" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B684" s="1" t="n">
         <v>44621</v>
@@ -21348,7 +21351,7 @@
     </row>
     <row r="685">
       <c r="A685" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B685" s="1" t="n">
         <v>44621</v>
@@ -21362,7 +21365,7 @@
     </row>
     <row r="686">
       <c r="A686" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B686" s="1" t="n">
         <v>44652</v>
@@ -21376,7 +21379,7 @@
     </row>
     <row r="687">
       <c r="A687" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B687" s="1" t="n">
         <v>44652</v>
@@ -21390,7 +21393,7 @@
     </row>
     <row r="688">
       <c r="A688" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B688" s="1" t="n">
         <v>44652</v>
@@ -21404,7 +21407,7 @@
     </row>
     <row r="689">
       <c r="A689" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B689" s="1" t="n">
         <v>44652</v>
@@ -21418,7 +21421,7 @@
     </row>
     <row r="690">
       <c r="A690" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B690" s="1" t="n">
         <v>44682</v>
@@ -21432,7 +21435,7 @@
     </row>
     <row r="691">
       <c r="A691" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B691" s="1" t="n">
         <v>44682</v>
@@ -21446,7 +21449,7 @@
     </row>
     <row r="692">
       <c r="A692" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B692" s="1" t="n">
         <v>44682</v>
@@ -21460,7 +21463,7 @@
     </row>
     <row r="693">
       <c r="A693" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B693" s="1" t="n">
         <v>44682</v>
@@ -21474,7 +21477,7 @@
     </row>
     <row r="694">
       <c r="A694" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B694" s="1" t="n">
         <v>44713</v>
@@ -21488,7 +21491,7 @@
     </row>
     <row r="695">
       <c r="A695" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B695" s="1" t="n">
         <v>44713</v>
@@ -21502,7 +21505,7 @@
     </row>
     <row r="696">
       <c r="A696" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B696" s="1" t="n">
         <v>44713</v>
@@ -21516,7 +21519,7 @@
     </row>
     <row r="697">
       <c r="A697" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B697" s="1" t="n">
         <v>44713</v>
@@ -21530,7 +21533,7 @@
     </row>
     <row r="698">
       <c r="A698" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B698" s="1" t="n">
         <v>44743</v>
@@ -21544,7 +21547,7 @@
     </row>
     <row r="699">
       <c r="A699" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B699" s="1" t="n">
         <v>44743</v>
@@ -21558,7 +21561,7 @@
     </row>
     <row r="700">
       <c r="A700" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B700" s="1" t="n">
         <v>44743</v>
@@ -21572,7 +21575,7 @@
     </row>
     <row r="701">
       <c r="A701" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B701" s="1" t="n">
         <v>44743</v>
@@ -21586,7 +21589,7 @@
     </row>
     <row r="702">
       <c r="A702" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B702" s="1" t="n">
         <v>44774</v>
@@ -21600,7 +21603,7 @@
     </row>
     <row r="703">
       <c r="A703" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B703" s="1" t="n">
         <v>44774</v>
@@ -21614,7 +21617,7 @@
     </row>
     <row r="704">
       <c r="A704" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B704" s="1" t="n">
         <v>44774</v>
@@ -21628,7 +21631,7 @@
     </row>
     <row r="705">
       <c r="A705" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B705" s="1" t="n">
         <v>44774</v>
@@ -21642,7 +21645,7 @@
     </row>
     <row r="706">
       <c r="A706" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B706" s="1" t="n">
         <v>44805</v>
@@ -21656,7 +21659,7 @@
     </row>
     <row r="707">
       <c r="A707" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B707" s="1" t="n">
         <v>44805</v>
@@ -21670,7 +21673,7 @@
     </row>
     <row r="708">
       <c r="A708" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B708" s="1" t="n">
         <v>44805</v>
@@ -21684,7 +21687,7 @@
     </row>
     <row r="709">
       <c r="A709" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B709" s="1" t="n">
         <v>44805</v>
@@ -21698,7 +21701,7 @@
     </row>
     <row r="710">
       <c r="A710" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B710" s="1" t="n">
         <v>44835</v>
@@ -21712,7 +21715,7 @@
     </row>
     <row r="711">
       <c r="A711" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B711" s="1" t="n">
         <v>44835</v>
@@ -21726,7 +21729,7 @@
     </row>
     <row r="712">
       <c r="A712" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B712" s="1" t="n">
         <v>44835</v>
@@ -21740,7 +21743,7 @@
     </row>
     <row r="713">
       <c r="A713" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B713" s="1" t="n">
         <v>44835</v>
@@ -21754,7 +21757,7 @@
     </row>
     <row r="714">
       <c r="A714" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B714" s="1" t="n">
         <v>44866</v>
@@ -21768,7 +21771,7 @@
     </row>
     <row r="715">
       <c r="A715" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B715" s="1" t="n">
         <v>44866</v>
@@ -21782,7 +21785,7 @@
     </row>
     <row r="716">
       <c r="A716" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B716" s="1" t="n">
         <v>44866</v>
@@ -21796,7 +21799,7 @@
     </row>
     <row r="717">
       <c r="A717" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B717" s="1" t="n">
         <v>44866</v>
@@ -21810,7 +21813,7 @@
     </row>
     <row r="718">
       <c r="A718" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B718" s="1" t="n">
         <v>44896</v>
@@ -21824,7 +21827,7 @@
     </row>
     <row r="719">
       <c r="A719" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B719" s="1" t="n">
         <v>44896</v>
@@ -21838,7 +21841,7 @@
     </row>
     <row r="720">
       <c r="A720" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B720" s="1" t="n">
         <v>44896</v>
@@ -21852,7 +21855,7 @@
     </row>
     <row r="721">
       <c r="A721" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B721" s="1" t="n">
         <v>44896</v>
@@ -21866,7 +21869,7 @@
     </row>
     <row r="722">
       <c r="A722" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B722" s="1" t="n">
         <v>44927</v>
@@ -21880,7 +21883,7 @@
     </row>
     <row r="723">
       <c r="A723" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B723" s="1" t="n">
         <v>44927</v>
@@ -21894,7 +21897,7 @@
     </row>
     <row r="724">
       <c r="A724" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B724" s="1" t="n">
         <v>44927</v>
@@ -21908,7 +21911,7 @@
     </row>
     <row r="725">
       <c r="A725" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B725" s="1" t="n">
         <v>44927</v>
@@ -21922,7 +21925,7 @@
     </row>
     <row r="726">
       <c r="A726" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B726" s="1" t="n">
         <v>44958</v>
@@ -21936,7 +21939,7 @@
     </row>
     <row r="727">
       <c r="A727" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B727" s="1" t="n">
         <v>44958</v>
@@ -21950,7 +21953,7 @@
     </row>
     <row r="728">
       <c r="A728" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B728" s="1" t="n">
         <v>44958</v>
@@ -21964,7 +21967,7 @@
     </row>
     <row r="729">
       <c r="A729" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B729" s="1" t="n">
         <v>44958</v>
@@ -21978,7 +21981,7 @@
     </row>
     <row r="730">
       <c r="A730" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B730" s="1" t="n">
         <v>44986</v>
@@ -21992,7 +21995,7 @@
     </row>
     <row r="731">
       <c r="A731" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B731" s="1" t="n">
         <v>44986</v>
@@ -22006,7 +22009,7 @@
     </row>
     <row r="732">
       <c r="A732" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B732" s="1" t="n">
         <v>44986</v>
@@ -22020,7 +22023,7 @@
     </row>
     <row r="733">
       <c r="A733" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B733" s="1" t="n">
         <v>44986</v>
@@ -22034,7 +22037,7 @@
     </row>
     <row r="734">
       <c r="A734" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B734" s="1" t="n">
         <v>45017</v>
@@ -22048,7 +22051,7 @@
     </row>
     <row r="735">
       <c r="A735" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B735" s="1" t="n">
         <v>45017</v>
@@ -22062,7 +22065,7 @@
     </row>
     <row r="736">
       <c r="A736" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B736" s="1" t="n">
         <v>45017</v>
@@ -22076,7 +22079,7 @@
     </row>
     <row r="737">
       <c r="A737" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B737" s="1" t="n">
         <v>45017</v>
@@ -22090,7 +22093,7 @@
     </row>
     <row r="738">
       <c r="A738" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B738" s="1" t="n">
         <v>45047</v>
@@ -22104,7 +22107,7 @@
     </row>
     <row r="739">
       <c r="A739" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B739" s="1" t="n">
         <v>45047</v>
@@ -22118,7 +22121,7 @@
     </row>
     <row r="740">
       <c r="A740" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B740" s="1" t="n">
         <v>45047</v>
@@ -22132,7 +22135,7 @@
     </row>
     <row r="741">
       <c r="A741" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B741" s="1" t="n">
         <v>45047</v>
@@ -22146,7 +22149,7 @@
     </row>
     <row r="742">
       <c r="A742" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B742" s="1" t="n">
         <v>45078</v>
@@ -22160,7 +22163,7 @@
     </row>
     <row r="743">
       <c r="A743" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B743" s="1" t="n">
         <v>45078</v>
@@ -22174,7 +22177,7 @@
     </row>
     <row r="744">
       <c r="A744" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B744" s="1" t="n">
         <v>45078</v>
@@ -22188,7 +22191,7 @@
     </row>
     <row r="745">
       <c r="A745" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B745" s="1" t="n">
         <v>45078</v>
@@ -22202,7 +22205,7 @@
     </row>
     <row r="746">
       <c r="A746" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B746" s="1" t="n">
         <v>45108</v>
@@ -22216,7 +22219,7 @@
     </row>
     <row r="747">
       <c r="A747" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B747" s="1" t="n">
         <v>45108</v>
@@ -22230,7 +22233,7 @@
     </row>
     <row r="748">
       <c r="A748" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B748" s="1" t="n">
         <v>45108</v>
@@ -22244,7 +22247,7 @@
     </row>
     <row r="749">
       <c r="A749" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B749" s="1" t="n">
         <v>45108</v>
@@ -22258,7 +22261,7 @@
     </row>
     <row r="750">
       <c r="A750" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B750" s="1" t="n">
         <v>45139</v>
@@ -22272,7 +22275,7 @@
     </row>
     <row r="751">
       <c r="A751" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B751" s="1" t="n">
         <v>45139</v>
@@ -22286,7 +22289,7 @@
     </row>
     <row r="752">
       <c r="A752" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B752" s="1" t="n">
         <v>45139</v>
@@ -22300,7 +22303,7 @@
     </row>
     <row r="753">
       <c r="A753" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B753" s="1" t="n">
         <v>45139</v>
@@ -22314,7 +22317,7 @@
     </row>
     <row r="754">
       <c r="A754" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B754" s="1" t="n">
         <v>45170</v>
@@ -22328,7 +22331,7 @@
     </row>
     <row r="755">
       <c r="A755" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B755" s="1" t="n">
         <v>45170</v>
@@ -22342,7 +22345,7 @@
     </row>
     <row r="756">
       <c r="A756" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B756" s="1" t="n">
         <v>45170</v>
@@ -22356,7 +22359,7 @@
     </row>
     <row r="757">
       <c r="A757" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B757" s="1" t="n">
         <v>45170</v>
@@ -22370,7 +22373,7 @@
     </row>
     <row r="758">
       <c r="A758" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B758" s="1" t="n">
         <v>45200</v>
@@ -22384,7 +22387,7 @@
     </row>
     <row r="759">
       <c r="A759" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B759" s="1" t="n">
         <v>45200</v>
@@ -22398,7 +22401,7 @@
     </row>
     <row r="760">
       <c r="A760" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B760" s="1" t="n">
         <v>45200</v>
@@ -22412,7 +22415,7 @@
     </row>
     <row r="761">
       <c r="A761" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B761" s="1" t="n">
         <v>45200</v>
@@ -22426,7 +22429,7 @@
     </row>
     <row r="762">
       <c r="A762" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B762" s="1" t="n">
         <v>45231</v>
@@ -22440,7 +22443,7 @@
     </row>
     <row r="763">
       <c r="A763" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B763" s="1" t="n">
         <v>45231</v>
@@ -22454,7 +22457,7 @@
     </row>
     <row r="764">
       <c r="A764" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B764" s="1" t="n">
         <v>45231</v>
@@ -22468,7 +22471,7 @@
     </row>
     <row r="765">
       <c r="A765" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B765" s="1" t="n">
         <v>45231</v>
@@ -22482,7 +22485,7 @@
     </row>
     <row r="766">
       <c r="A766" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B766" s="1" t="n">
         <v>45261</v>
@@ -22496,7 +22499,7 @@
     </row>
     <row r="767">
       <c r="A767" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B767" s="1" t="n">
         <v>45261</v>
@@ -22510,7 +22513,7 @@
     </row>
     <row r="768">
       <c r="A768" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B768" s="1" t="n">
         <v>45261</v>
@@ -22524,7 +22527,7 @@
     </row>
     <row r="769">
       <c r="A769" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B769" s="1" t="n">
         <v>45261</v>
